--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3703.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3703.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.366750080611414</v>
+        <v>1.171352624893188</v>
       </c>
       <c r="B1">
-        <v>2.795737505208189</v>
+        <v>4.763513565063477</v>
       </c>
       <c r="C1">
-        <v>7.314123336766649</v>
+        <v>3.228675603866577</v>
       </c>
       <c r="D1">
-        <v>1.981363520000926</v>
+        <v>1.700800776481628</v>
       </c>
       <c r="E1">
-        <v>1.011305305378837</v>
+        <v>1.507060885429382</v>
       </c>
     </row>
   </sheetData>
